--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,26 +1337,26 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1391,97 +1391,97 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1517,21 +1517,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1570,36 +1570,6 @@
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>22</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,26 +1337,26 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1391,97 +1391,97 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1517,21 +1517,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,20 +1556,50 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>22</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
